--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1712.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1712.xlsx
@@ -354,7 +354,7 @@
         <v>1.213008474188071</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.216045112815138</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1712.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1712.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.3970130615002114</v>
+        <v>0.8228499293327332</v>
       </c>
       <c r="B1">
-        <v>1.213008474188071</v>
+        <v>2.10289454460144</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.216045112815138</v>
+        <v>1.357670426368713</v>
       </c>
       <c r="E1">
-        <v>1.587377658013546</v>
+        <v>0.4972657263278961</v>
       </c>
     </row>
   </sheetData>
